--- a/doc/VIP_AXI_monitor_checker.xlsx
+++ b/doc/VIP_AXI_monitor_checker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VIPdesign\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cfa433bbe51d449a/ThoVo_E/VLSI_Technology/00_VIP_design/git/AxiVIP/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767718B3-62A6-4E02-B376-E336BE3A1795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{767718B3-62A6-4E02-B376-E336BE3A1795}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{972F1D3B-D484-4329-8970-78C4690C04E5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5235" yWindow="-16320" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Block_diagram" sheetId="1" r:id="rId1"/>
@@ -20308,9 +20308,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
+      <xdr:colOff>220435</xdr:colOff>
       <xdr:row>289</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:rowOff>138977</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -20321,12 +20321,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="631" idx="1"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12967607" y="70240071"/>
-          <a:ext cx="557893" cy="0"/>
+          <a:off x="4217413" y="71672023"/>
+          <a:ext cx="698287" cy="16513"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -30810,15 +30812,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>204</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>162934</xdr:colOff>
+      <xdr:colOff>263786</xdr:colOff>
       <xdr:row>206</xdr:row>
-      <xdr:rowOff>32493</xdr:rowOff>
+      <xdr:rowOff>43699</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -30833,8 +30835,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12114119" y="50511075"/>
-          <a:ext cx="297965" cy="337293"/>
+          <a:off x="8113058" y="50796265"/>
+          <a:ext cx="297404" cy="335052"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30908,7 +30910,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="FFC000"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -31791,13 +31793,13 @@
       <xdr:col>33</xdr:col>
       <xdr:colOff>275358</xdr:colOff>
       <xdr:row>229</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:rowOff>211893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>251979</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>37235</xdr:rowOff>
+      <xdr:rowOff>93264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -31812,8 +31814,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14724783" y="56667689"/>
-          <a:ext cx="605271" cy="376671"/>
+          <a:off x="10618387" y="56969687"/>
+          <a:ext cx="604151" cy="374430"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -31866,11 +31868,11 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>251979</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>96550</xdr:rowOff>
+      <xdr:rowOff>152578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>256921</xdr:colOff>
+      <xdr:colOff>256920</xdr:colOff>
       <xdr:row>232</xdr:row>
       <xdr:rowOff>108696</xdr:rowOff>
     </xdr:to>
@@ -31890,8 +31892,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="15707452" y="56478627"/>
-          <a:ext cx="507446" cy="1262242"/>
+          <a:off x="11627950" y="56751490"/>
+          <a:ext cx="449176" cy="1260000"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -31923,15 +31925,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>112059</xdr:colOff>
+      <xdr:colOff>23275</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>96549</xdr:rowOff>
+      <xdr:rowOff>150290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>275358</xdr:colOff>
       <xdr:row>230</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
+      <xdr:rowOff>152578</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -31944,12 +31946,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="795" idx="1"/>
+          <a:endCxn id="814" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10141324" y="57100873"/>
-          <a:ext cx="477063" cy="4303"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10052540" y="57154614"/>
+          <a:ext cx="565847" cy="2288"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -32535,16 +32538,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>201</xdr:row>
-      <xdr:rowOff>156196</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>244</xdr:row>
-      <xdr:rowOff>33339</xdr:rowOff>
+      <xdr:colOff>22413</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -32556,19 +32559,16 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="802" idx="1"/>
-          <a:endCxn id="543" idx="1"/>
+          <a:stCxn id="516" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipH="1">
-          <a:off x="11763374" y="49733821"/>
-          <a:ext cx="1102659" cy="10526093"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -36281"/>
-          </a:avLst>
+        <a:xfrm flipV="1">
+          <a:off x="6936441" y="50011854"/>
+          <a:ext cx="605119" cy="9323294"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
@@ -33890,74 +33890,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>118615</xdr:colOff>
-      <xdr:row>298</xdr:row>
-      <xdr:rowOff>43877</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>139615</xdr:colOff>
-      <xdr:row>299</xdr:row>
-      <xdr:rowOff>50673</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="828" name="TextBox 827">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A1B7F1-A7E5-4652-BAB8-EE3467562061}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16736939" y="73812201"/>
-          <a:ext cx="648529" cy="253325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>NO</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>56029</xdr:colOff>
       <xdr:row>289</xdr:row>
@@ -37031,6 +36963,482 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="516" name="Diamond 515">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6CF2786-EE39-45B1-B68A-967CA4E7B770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3776383" y="58606766"/>
+          <a:ext cx="3160058" cy="1456764"/>
+        </a:xfrm>
+        <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>((count[wid]==len_num)&amp;&amp;(wlast==1)) </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>33899</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817CE9FD-2D24-45A6-957A-72D3B99FFC82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="802" idx="1"/>
+          <a:endCxn id="516" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5356412" y="60063530"/>
+          <a:ext cx="2305610" cy="426104"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>221877</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>91217</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>63870</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="530" name="TextBox 529">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531B145C-E996-4DA7-AF7F-B48D7AD8EE0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6999194" y="58951906"/>
+          <a:ext cx="297405" cy="335052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>173132</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>204507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>214695</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>91072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="531" name="Rectangle: Rounded Corners 530">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E19EBD-06CB-4AE1-8341-3746BF4140B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4554632" y="57455360"/>
+          <a:ext cx="1610387" cy="379624"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>count[wid]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> = 0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>91072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37032</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="538" name="Straight Arrow Connector 537">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6AFC712-AAD5-4ACE-9C6A-9670D7ED253A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="516" idx="0"/>
+          <a:endCxn id="531" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5356412" y="57834984"/>
+          <a:ext cx="3414" cy="771782"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>73958</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>160245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57610</xdr:colOff>
+      <xdr:row>236</xdr:row>
+      <xdr:rowOff>4126</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="544" name="TextBox 543">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F65062-60A2-40B6-8D15-D20C3584775C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5396752" y="58150686"/>
+          <a:ext cx="297417" cy="336940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Y</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>37032</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>156195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>204507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="545" name="Connector: Elbow 544">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0A9F4F-E81F-4F98-A497-2BA8ABD30A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="531" idx="0"/>
+          <a:endCxn id="543" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="3339316" y="52031676"/>
+          <a:ext cx="7444194" cy="3403174"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -47693,8 +48101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DFFB1C-A468-4DBF-8332-E91A751C002D}">
   <dimension ref="A5:AX264"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A298" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z179" sqref="Z179"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="R91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BJ107" sqref="BJ107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -51302,7 +51710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A273B9-13F7-4977-89C3-22C3D06C8BEF}">
   <dimension ref="B2:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B82" sqref="B82:F82"/>
     </sheetView>
   </sheetViews>
